--- a/test.xlsx
+++ b/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:C19"/>
+  <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,91 +424,97 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>科创板有什么值得投资的股票？</t>
+          <t>总市值大于500亿，且营收增长率大于20%，并且净利润增长率大于20%，并且净资产收益率ROE大于5%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
-威迈斯：净利润3年复合增长率高达350.06%，表现出强劲的盈利能力;
-拓荆科技：净利润3年复合增长率为290.77%，行业成长性显著;
-汇成股份：净利润3年复合增长率为270.68%，具备较好的成长潜力;
-南芯科技：净利润3年复合增长率为226.39%，在半导体领域具有竞争力;
-海光信息：净利润3年复合增长率为224.82%，拥有较高的市场份额。
-风险提示：股市有风险，投资需谨慎。以上分析仅供参考，不构成具体投资建议。</t>
+          <t xml:space="preserve">根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+海航控股：具有较高的市场份额和品牌影响力，业绩增长稳健;
+沪电股份：行业地位突出，净利润及营收增长显著;
+新易盛：光通信领域内表现优秀，成长性强;
+中际旭创：光通信行业龙头，盈利能力突出;
+泸州老窖：知名白酒企业，产品需求稳定，市场前景广阔;
+海信家电：白电产品竞争力强，市场占有率高;
+山西汾酒：白酒行业知名品牌，产品与渠道优势明显;
+传音控股：手机制造商，非洲市场表现优异;
+今世缘：区域性白酒 </t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>市盈率介于0-50并且市销率介于0-2，营收增长率大于30%，并且净利润增长率大于30%</t>
+          <t>推荐几只热门股票</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
-荣盛发展：具有较高的成交量和大单流入，显示市场活跃度和资金关注度较高。
-招商蛇口：市盈率合理，市销率较低，且净利润和营收增长率均超标。
-津滨发展：营收同比增速极高，表明公司业务扩张迅速。
-浪潮信息：科技行业成长性强，业绩增长稳健。
-博威合金：净利润同比增长显著，且市盈率处于合理区间。
-风险提示：股市有风险，投资需谨慎。以上分析仅供参考，不构成具体投资建议。</t>
+          <t xml:space="preserve">我是金融领域的AI，不能提供具体的投资建议，不过我可以根据近期的行情和讨论热度，为您推荐一些值得关注的股票。我将重点介绍以下股票：
+比亚迪：作为新能源汽车行业的龙头企业，业绩稳定，市场占有率高，且近期股价上涨趋势明显。
+锐明技术：虽然属于相对冷门的行业，但其产品在智能运输领域具有较高的市场份额，且近期有大单资金流入，显示出市场对其前景的看好。
+歌尔股份：消费电子行业的知名企业，随着VR\AR等新兴技术的兴起，公司有望持续受益。
+斯菱股份：涨幅较大，显示出市场的热烈反应，但需注意市场波动风险。
+容大感光：虽然今日下跌，但换手率高达19.67%，显示出市场的活跃度，可关注其后续走势。 </t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>分析一下中远海控的财务状况</t>
+          <t>市盈率介于0-50并且市销率介于0-2，营收增长率大于30%，并且净利润增长率大于30%</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">中远海控的财务状况表现不俗。首先，从盈利能力来看，公司的加权净资产收益率ROE为3.39%，高于行业均值2.02%，说明公司的盈利能力较强，能为股东创造更多的价值。其次，公司的偿债能力虽然略低于行业均值1.76，但仍然达到了1.57，表明公司的短期偿债能力较强，能够有效应对短期债务压力。再次，公司的成长能力和营运能力都相对优秀。尽管净利润同比增长率为-5.23%，但是相比行业均值11.59%，公司的成长速度还是更快一些。此外，公司的总资产周转率为0.10，也高于行业均值0.095，说明公司的资产使用效率较高。最后，虽然销售现金比率为18.37%，低于行业均值24.07%，但这也反映出公司在现金流管理上的谨慎态度。总体来看，中 </t>
+          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+荣盛发展：具有较高的成交量和大单流入，显示市场活跃度和资金关注度较高。
+长盈精密：营业收入和净利润同比增长率均超30%，表明公司业绩增长强劲。
+湖南黄金：换手率较高，市场交易活跃，且净利润同比增长显著。
+渤海租赁：市盈率较低，估值合理，且净利润和营业收入增长较快。
+招商蛇口：市盈率适中，市销率低，且净利润大幅增长，显示盈利能力提升。
+风险提示：股市有风险，投资需谨慎。以上分析仅供参考，不构成具体投资建议。</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>中信证券触发了什么技术信号？</t>
+          <t>评估下水井坊的成长性如何？</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">中信证券最近触发了几个技术信号，包括平台整理、价跌量缩、跳空低开以及RSI死叉。这些信号表明该股票目前处于一个相对稳定但可能存在下行压力的阶段。首先，平台整理意味着股价在一段时间内波动不大，市场参与者正在观望，等待新的消息或事件来推动股价变动。其次，价跌量缩表示虽然股价下跌，但交易量也在减少，这可能预示着卖压减轻或者买盘力量增强。然而，RSI死叉通常被视为卖出信号，因为它表明短期内的强劲买入力量已经减弱，可能会导致股价进一步下跌。最后，跳空低开则是一种熊市信号，表示市场对公司未来的预期不佳，投资者纷纷抛售股票。总的来说，这些技术信号表明中信证券的技术面存在一定的挑战，投资者应谨慎对待。
-风险提示：以上内容仅供参考，不构成投资建议，股市有风险，入市需谨慎，投资 </t>
+          <t xml:space="preserve">从财务数据来看，水井坊的成长性表现尚有提升空间。首先，从净利润同比增长率来看，2024年第一季度的数据为16.82%，虽然相比前两个年度有所上升，但是相比行业均值36.73%，水井坊的成长性明显较弱。其次，从营运能力和现金获取能力来看，水井坊的总资产周转率为0.11，低于行业均值0.15，销售现金比率为-10.95%，也低于行业均值4.41%，这表明公司的资产使用效率和现金流生成能力相对较弱，这也是影响其成长性的因素之一。然而，值得注意的是，尽管公司的成长性不强，但在产品升级创新、品质把控严格等方面仍具有一定优势，这些都有望在未来转化为公司的成长动力。总的来说，水井坊的成长性仍有提升空间，需要关注其未来的战略调整和市场表现。 </t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>科创板有什么值得投资的股票？</t>
+          <t>激光雷达有哪些股票推荐？</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
-百利天恒-U：具有较高的每股收益和净利润，表现出较强的盈利能力;
-石头科技：虽然涨幅较小，但每股收益稳定，且市盈率相对较低，具备一定的投资价值;
-心脉医疗：在医疗器械行业中表现稳健，业绩持续增长;
-惠泰医疗：同样展现出良好的盈利能力和成长性;
-传音控股：作为消费电子行业的代表，拥有较大的市场份额和品牌影响力。
-风险提示：股市有风险，投资需谨慎。以上分析仅供参考，不构成具体投资建议。</t>
+领益智造：该公司涉足消费电子和激光雷达领域，具有较大的成交量和大单流入，显示市场活跃度和资金关注度较高。
+中海达：尽管最近净利润为负，但其涉及激光雷达业务且换手率高达10.47%，表明市场对其有较高的交易热情。
+雷科防务：同样涉及激光雷达业务，虽然净利润为负，但成交量较大，可能存在一定的投资机会。
+水晶光电：公司主营光学光电子，参与激光雷达领域，净利润良好，具备一定的投资价值。
+风险提示：股市有风险，投资需谨慎。以上信息仅供参考，不构成投资建议。</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -518,231 +524,232 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>分析一下万丰奥威的财务状况</t>
+          <t>塑料制品有哪些股票推荐？</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">万丰奥威的财务状况整体较好。从盈利能力来看，公司的加权净资产收益率为3.32%，高于行业均值1.43%，说明公司的盈利能力强于同行业的平均水平。在偿债能力方面，虽然公司的流动比率为1.37，低于行业均值2.68，但其资产负债率在逐年下降，从2022年的53.94%降至2024年第一季度的46.05%，说明公司的偿债压力在逐渐减轻。在成长能力上，公司的净利润同比增长率为1.25%，远高于行业均值-14.78%，表明公司的盈利能力在持续增长。在营运能力方面，公司的总资产周转率为0.20，略高于行业均值0.15，说明公司的资产使用效率较高。然而，在现金获取能力上，公司的销售现金比率为0.36%，低于行业均值1.42%，这可 </t>
+          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+华峰超纤：成交量大，换手率较高，显示市场活跃度高;
+双象股份：涨幅较大，大单流入多，表明资金关注度高;
+道明光学：虽然涨幅不大，但成交量大且有较高的换手率;
+神剑股份：股价稳定，成交量适中，适合稳健投资者;
+同益股份：涨幅良好，成交量和换手率均表现不错。
+风险提示：股市有风险，投资需谨慎。以上信息仅供参考，不构成投资建议。</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>星湖科技的资金流向怎么样？</t>
+          <t>总市值大于500亿，且营收增长率大于20%，并且净利润增长率大于20%，并且净资产收益率ROE大于5%</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>星湖科技的资金流向表现较为疲弱。从今日的数据来看，主力净流入为-2366万，说明主力资金正在流出，这可能对股价产生一定的压力。同时，累计5日主力净流入为-5786万，累计20日主力净流入为-10.43亿，这也进一步证实了主力资金的流出趋势。此外，所属行业的食品饮料板块今日主力净流入也为-1120万，整体上看，该板块的主力资金也在流出。因此，从资金流向来看，星湖科技的技术面存在一定压力。投资者在操作时应谨慎考虑资金流向的影响。
-风险提示：以上内容仅供参考，不构成投资建议，股市有风险，入市需谨慎，投资者应根据自身情况做出判断。</t>
+          <t xml:space="preserve">根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+海航控股：具有较高的市场份额和品牌影响力，业绩稳定增长;
+沪电股份：行业地位突出，技术领先，成长性强;
+新易盛：光通信领域的高新技术企业，市场前景广阔;
+中际旭创：光通信领域的重要参与者，技术创新能力强;
+天孚通信：专注于光通信领域，技术优势明显;
+海信家电：知名家电品牌，产品竞争力强，市场占有率高;
+传音控股：手机市场占有率不断提升，业务拓展迅速;
+泸州老窖：白酒行业龙头之一，品牌价值高，市场竞争 </t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>精选半导体板块股票</t>
+          <t>ChatGPT概念推荐买什么股票</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
-通富微电：成交量较大，显示市场活跃度高，且净利润稳健;
-长电科技：虽然当日下跌，但净利润较高，可能具备反弹潜力;
-中颖电子：换手率较高，表明股票流动性好，同时大单流入较多;
-华天科技：成交量适中，净利润良好，可能有投资价值;
-海光信息：尽管当日大幅下跌，但净利润较高，长期投资者可关注。
+工业富联：主力净额最大，显示资金流入活跃，且公司规模大，行业地位稳固;
+中科创达：虽然主力净额不是最高，但换手率高，市场交易活跃，且公司属于互联网服务行业，具有发展潜力;
+科大讯飞：虽净利润为负，但作为人工智能领域的龙头企业，关注度高，长期投资价值可能较大。
 风险提示：股市有风险，投资需谨慎。以上分析仅供参考，不构成具体投资建议。</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>macd金叉，主力净流入大于500万</t>
+          <t>市盈率介于0-50并且市销率介于0-2，营收增长率大于30%，并且净利润增长率大于30%</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
-吉电股份：该股票MACD金叉，且主力净流入达到3.71亿，市场关注度高，涨幅较大;
-内蒙华电：同样呈 </t>
+荣盛发展：市盈率较低，有较大的成交量和大单流入，显示市场活跃度和资金关注度较高。
+招商蛇口：市盈率适中，市销率合理，营业收入和净利润增长率均超预期，表现出良好的成长性。
+格林美：市盈率和市销率均处于合理范围，且净利润同比增长显著，反映出公司的盈利能力增强。
+湖南黄金：市盈率和市销率都在合理范围内，营业收入和净利润增长率均超过30%，表明公司业绩增长稳健。
+长盈精密：市盈率和市销率在规定区间内，净利润增长率高，且换手率极高，显示交易活跃，可能存在投资机会。
+风险提示 </t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>评估下水井坊的成长性如何？</t>
+          <t>交运设备有哪些股票推荐？</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">从财务数据来看，水井坊的成长性表现尚有提升空间。首先，从净利润同比增长率来看，2024年第一季度的数据为16.82%，虽然相比前两个年度有所上升，但是相较于行业平均水平的36.73%，水井坊的成长速度明显较慢。其次，从营运能力和现金获取能力来看，公司的总资产周转率为0.11，低于行业均值0.15，说明公司的资产使用效率较低;销售现金比率为-10.95%，远低于行业均值4.41%，表明公司的现金流状况面临一些压力，这可能会对公司的成长性产生一定影响。然而，值得注意的是，尽管公司的成长性相对较弱，但在产品升级创新、品质把控严格等方面仍具有一定的竞争优势。因此，综合考虑，水井坊的成长性仍有待提高。
-风险提示：以上内容仅供参考，不构成投资建议，股市 </t>
+          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+宗申动力：成交量大，显示有较高的市场关注度和流动性，且涨幅较好;
+中国中车：净利润较高，显示公司盈利能力强;
+中国通号：虽然成交量不是最高，但涨幅显著，可能有潜在的市场动向;
+康尼机电：换手率高，表明股票活跃度较高，有一定的交易机会;
+隆鑫通用：尽管当日下跌，但成交量较大，可能存在反弹的机会。
+风险提示：股市有风险，投资需谨慎。以上分析仅供参考，不构成具体投资建议。</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>微盘股有哪些股票推荐？</t>
+          <t>总市值大于500亿，且营收增长率大于20%，并且净利润增长率大于20%，并且净资产收益率ROE大于5%</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
-万方发展：具有较高的股吧人气排名，显示出市场关注度高，同时今日涨幅较大，可能有较好的市场表现;
-西部牧业：同样具有较高的人气排名和较大的今日涨幅，表明市场对其有一定的认可;
-廊坊发展：净利润为正，且今日涨幅接近10%，可能是市场看好其业绩表现;
-麦趣尔：虽然净利润为负，但今日涨幅接近10%，可能受到市场的短期关注;
-亚振家居：今日微幅上涨，市场表现稳定，可以关注其长期潜力。
-风险提示：股市有风险，投资需谨慎。以上信息仅供参考，不构成投资建议。</t>
+          <t xml:space="preserve">根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+海航控股：具有较大的市场份额和品牌影响力，业绩稳定增长，具备一定的投资价值。
+沪电股份：行业地位突出，净利润同比增长率高，表明公司盈利能力强。
+新易盛：光通信领域的高新技术企业，成长性好，市场前景广阔。
+天孚通信：在光通信领域有较强的竞争力，净利润和净资产收益率均表现良好。
+中际旭创：高速光模块领域的领先企业，业绩增长迅速，市场潜力大。
+海信家电：多元化发展的家电巨头，产品竞争力强，市场占有率高。
+泸州老窖：白酒行业的知名企业，品牌影响力大，业绩持续增长 </t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>推荐几只热门股票</t>
+          <t>市盈率介于0-50并且市销率介于0-2，营收增长率大于30%，并且净利润增长率大于30%</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>我是金融领域的AI，不能提供具体的投资建议，不过我可以根据近期的行情和讨论热度，为您推荐一些值得关注的股票。我将重点介绍以下股票：
-贵州茅台：作为白酒行业的龙头企业，具有较高的品牌价值和市场份额，且每股收益高，投资者对其长期增长抱有信心。
-药明康德：医药研发外包行业的重要参与者，受益于我国创新药研发的热潮，业绩稳定增长。
-意华股份：近期涨幅较大，显示出市场的热烈追捧，但需注意短期波动风险。
-新易盛：光通信领域的高新技术企业，具备一定的成长性。
-亚通精工：连续涨停，可能因市场预期其未来有利好因素推动。
-风险提示：股市有风险，投资需谨慎。以上分析仅供参考，不构成具体投资建议。</t>
+          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+荣盛发展：市盈率较低，营收和净利润增长率高，表明公司盈利能力强且在市场中有较好的成长性;
+招商蛇口：市盈率适中，营收和净利润增长稳健，行业地位稳固;
+格林美：虽然市盈率较高，但营收和净利润增长迅速，显示出较强的市场竞争力;
+湖南黄金：市盈率和市销率均处于合理区间，营收和净利润增长显著，具备投资潜力;
+长盈精密：市盈率和市销率都在合理范围内，营收和净利润增长迅速，反映出良好的业绩表现。
+风险提示：以上信息仅供参考，不构成投资建议。股市有风险，投资需谨慎。</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.5</v>
+        <v>0.2272727272727273</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>市盈率介于0-50并且市销率介于0-2，营收增长率大于30%，并且净利润增长率大于30%</t>
+          <t>ChatGPT概念推荐买什么股票</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
-荣盛发展：具有较高的成交量和大单流入，显示市场活跃度和资金关注度较高。
-招商蛇口：市盈率合理，市销率较低，且净利润和营收增长率均超30%，表明公司盈利能力强且被低估。
-津滨发展：营收和净利润同比大幅增长，市销率极具吸引力，可能存在较大的成长空间。
-浪潮信息：科技行业前景看好，该公司营收和净利润增长迅速，市场地位稳固。
-博威合金：业绩增长显著，市盈率适中，市销率显示其产品可能有较好的市场接受度。
-风险提示：股市有风险，投资需谨慎。以上分析仅供参考，不构成具体投资建 </t>
+          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+工业富联：主力净额最大，显示资金流入活跃，且净利润较高，表现出公司的盈利能力;
+中科创达：虽然主力净额不是最高，但换手率高，表明市场交易活跃，可能有较好的流动性;
+神州泰岳：涨幅较大，主力净额较高，市场关注度高，同时游戏行业的公司也与ChatGPT有一定的关联性;
+小商品城：主力净额和换手率均处于中等水平，作为商业百货公司，也有一定的市场关注度。
+风险提示：股市有风险，投资需谨慎。以上信息仅供参考，不构成投资建议。</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>评估下水井坊的成长性如何？</t>
+          <t>ChatGPT概念推荐买什么股票</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">从财务数据来看，水井坊的成长性表现尚有提升空间。首先，从净利润同比增长率来看，2024年第一季度的净利润同比增长率为16.82%，虽然呈现出增长态势，但是相比于行业均值36.73%，水井坊的成长性较弱。其次，从总资产周转率来看，2024年第一季度的总资产周转率为0.11，也低于行业均值0.15，这表明公司的资产使用效率较低，对公司的成长性也有一定影响。然而，需要注意的是，尽管水井坊的成长性相对较弱，但在产品升级创新、品质把控严格等方面仍具有一定的竞争优势。因此，对于水井坊的成长性，我们不能仅看绝对数值，还需要考虑其在行业中的相对位置以及其他因素的影响。
-风险提示：以上内容仅供参考，不构成投资建议，股市有风险，入市需谨慎，投资者应根据自身情况 </t>
+          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+万兴科技：连续上涨天数较多，表现强势，且有较大的大单流入，显示资金关注度高;
+中科创达：换手率较高，市场活跃度较好，同时大单流入也较为显著;
+科大讯飞：虽然当日微涨，但作为知名人工智能企业，具有长期投资价值;
+财富趋势：连续上涨且最新价较高，可能预示着市场对其前景的看好;
+软通动力：尽管最近一个交易日下跌，但前期涨幅较大，可关注其后续走势。
+风险提示：股市有风险，投资需谨慎。以上信息仅供参考，不构成投资建议。</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ChatGPT概念推荐买什么股票</t>
+          <t>精选半导体板块股票</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
-鸿博股份：连续上涨天数较多，显示近期市场对其热度较高，同时具有ChatGPT概念;
-江南化工：虽然涨幅较小，但作为ChatGPT概念股，且净利润为正，具备一定的投资价值;
-天源迪科：同样具有ChatGPT概念，且大单流入金额较大，表明有资金关注;
-汤姆猫：净利润较高，且有一定的大单流入，可能受到机构或大户青睐;
-大胜达：虽涨幅不大，但连续上涨天数表明其市场表现稳定。
-风险提示：股市有风险，投资需谨慎。以上信息仅供参考，不构成投资建议。</t>
+北方华创：业绩优秀，每股收益高，净利润较大，市场关注度高;
+德明利：虽然市盈率较高，但每股收益良好，交易活跃可能有潜在成长性;
+华海清科：每股收益和净利润均表现不错，市场流动性好;
+斯达半导：每股收益较好，虽近期股价有所下跌，但长期潜力仍需观察;
+江波龙：涨幅较大，每股收益稳定，市场参与度高。
+风险提示：股市有风险，投资需谨慎。以上分析仅供参考，不构成具体投资建议。</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>精选半导体板块股票</t>
+          <t>ChatGPT概念推荐买什么股票</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+万兴科技：连续四天上涨，表现强势，且净利润较好;
+中科创达：同样呈现强劲走势，大单流入显著，市场关注度高;
+科大讯飞：虽今日微涨，但作为知名人工智能企业，具备长期投资价值;
+财富趋势：稳健上涨，且在软件开发领域具有特色;
+软通动力：虽然今日有所下跌，但近期涨幅较大，可能存在调整需求。
+风险提示：股市有风险，投资需谨慎。以上信息仅供参考，不构成投资建议。</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>微盘股有哪些股票推荐？</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
-瑞松科技：连续上涨天数达到9天，显示近期强势，且净利润良好，有较大的大单流入，表明资金关注度高。
-东南电子：微盘股，连续上涨天数6天，涨幅较大，换手率较高，市场活跃度高。
-华菱精工：虽然净利润为负，但连续上涨天数达到5天，市场可能预期其未来转亏为盈。
-三晖电气：连续上涨天数3天，涨幅和换手率适中，市场表现稳定。
-风险提示：股市有风险，投资需谨慎。以上分析仅供参考，不构成具体投资建议。</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>同花顺行情趋势怎么看？</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">从技术面上看，同花顺的当前股价为114.46，相较于今日开盘价116.60有所下 </t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:C17"/>
+  <dimension ref="A2:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,6 +752,249 @@
         <v>0.1666666666666667</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ChatGPT概念推荐买什么股票</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+开普云：每股收益较高，且属于互联网服务行业，可能受益于人工智能的发展;
+财富趋势：虽然每股收益不是最高，但其所属的软件开发行业与AI应用密切相关;
+神州数码：涨幅较好，且作为计算机设备行业的代表，有潜力随着AI技术进步而发展;
+中科创达：换手率高，显示市场活跃度较大，且在互联网服务行业中具有竞争力;
+工业富联：涨幅良好，且作为消费电子行业的龙头企业之一，有望受惠于AI技术的广泛应用。
+风险提示：股市有风险，投资需谨慎。以上分析仅供参考，不构成具体投资建议。</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>市盈率介于0-50并且市销率介于0-2，营收增长率大于30%，并且净利润增长率大于30%</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+荣盛发展：具有较高的成交量和大单流入，显示市场活跃度和资金关注度较高。
+招商蛇口：市盈率合理，市销率较低，同时营业收入和净利润增长率均超标。
+中粮糖业：食品行业具备防御性，且业绩增长迅速。
+湖南黄金：有色金属行业表现出色，业绩增长强劲。
+格林美：新能源车概念，行业前景良好，业绩高速增长。
+风险提示：股市有风险，投资需谨慎。以上信息仅供参考，不构成投资建议。</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2272727272727273</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>精选半导体板块股票</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+臻镭科技：主力净额最大，显示资金流入活跃，且涨幅表现良好;
+扬杰科技：净利润较高，表明公司盈利能力较强;
+拓荆科技：虽然小幅下跌，但主力净额和净利润表现不错;
+源杰科技：同样展现出较强的市场关注度和财务健康状况;
+芯源微：尽管当日小幅下跌，但其净利润和主力净额值得关注。
+风险提示：股市有风险，投资需谨慎。以上分析仅供参考，不构成具体投资建议。</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>精选半导体板块股票</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+拓荆科技：净利润3年复合增长率高达290.77%，表现出较强的盈利能力;
+汇成股份：净利润3年复合增长率为270.68%，业绩增长稳健;
+南芯科技：净利润3年复合增长率为226.39%，在模拟芯片设计领域有较好发展潜力;
+海光信息：净利润3年复合增长率为224.82%，显示出强大的成长性;
+京仪装备：净利润3年复合增长率为165.98%，具备一定的市场竞争力。
+风险提示：股市有风险，投资需谨慎。以上分析仅供参考，不构成具体投资建议。</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>总市值大于500亿，且营收增长率大于20%，并且净利润增长率大于20%，并且净资产收益率ROE大于5%</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+海航控股：具有较高的市场份额和品牌影响力，业绩稳定增长;
+沪电股份：行业地位突出，技术领先，成长性强;
+新易盛：光通信领域的高新技术企业，市场前景广阔;
+中际旭创：光通信领域的重要参与者，技术创新能力强;
+天孚通信：光通信领域的优质企业，具备较强的竞争优势;
+海信家电：多元化发展的白电巨头，产品竞争力强;
+传音控股：手机市场的黑马，非洲市场的领导者;
+泸州老窖：白酒行业的知名企业，品牌价值高;
+春秋航空：国内领先的低成本航空公司，运营效率高;
+今世缘：区域强势白酒品牌，市场占有率不断提升;
+山西汾酒：知名白 </t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ChatGPT概念推荐买什么股票</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+开普云：每股收益高，净利润良好，属于互联网服务行业;
+财富趋势：每股收益和净利润均较好，且所属软件开发行业具有发展潜力;
+神州数码：净利润较高，虽每股收益较低但市场规模较大;
+三人行：每股收益和净利润表现不错，文化传媒行业有特色;
+工业富联：虽然涨跌幅为负，但每股收益和大单流入显示其有一定吸引力;
+中科创达：换手率高，表明市场活跃度高，同时净利润也不错;
+万兴科技：每股收益和净利润都较为可观，软件开发行业前景广阔。
+风险提示：股市有风险，投资需谨慎。以上信息仅供参考，不构成投资建议。</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>精选半导体板块股票</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+圣邦股份：连续上涨天数较多，显示近期市场表现良好;
+芯原股份：尽管净利润为负，但大单流入和换手率较高，表明有资金关注;
+龙迅股份：涨幅较好，同时大单流入和换手率适中，可能有上升空间;
+恒玄科技：股价稳定，市盈率合理，基本面相对稳健;
+江波龙：连续上涨次数多，换手率高，显示活跃度较高。
+风险提示：股市有风险，投资需谨慎。以上分析仅供参考，不构成具体投资建议。</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>精选半导体板块股票</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+北方华创：业绩优秀，每股收益高，净利润较大，市场关注度较高;
+德明利：虽然当日股价有所下跌，但每股收益良好，市场可能预期其未来表现;
+华海清科：每股收益稳定，市场交易活跃，有一定的投资吸引力;
+斯达半导：每股收益较低，但市盈率合理，表明投资者对其盈利能力有信心;
+江波龙：每股收益和净利润均较好，市场交易活跃，流动性强。
+风险提示：股市有风险，投资需谨慎。以上分析仅供参考，不构成具体投资建议。</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>总市值大于500亿，且营收增长率大于20%，并且净利润增长率大于20%，并且净资产收益率ROE大于5%</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+海航控股：具有较高的市场份额和品牌影响力，业绩稳定增长;
+沪电股份：行业地位突出，技术领先，成长性强;
+新易盛：光通信领域的高新技术企业，市场前景广阔;
+中际旭创：光通信领域的重要参与者，技术创新能力强;
+天孚通信：专注于光通信领域，产品竞争力强;
+海信家电：知名家电品牌，产品多元化，市场占有率高;
+泸州老窖：白酒行业龙头，品牌价值高，市场竞争力强;
+传音控股：手机市场占有率不断提升，业务拓展迅速;
+今世缘：区域性白酒龙头，市场渗透率高;
+春秋航空：国内领先的航空公司之一，运营效率高;
+山西汾酒：白酒行业知名品 </t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>市盈率介于0-50并且市销率介于0-2，营收增长率大于30%，并且净利润增长率大于30%</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>根据您提供的条件，我找到了一些股票。我将为您重点介绍以下股票：
+荣盛发展：具有较高的市销率和营业收入同比增长率，显示其销售能力强且增长迅速。
+中粮糖业：市盈率较低，同时营业收入和净利润增长率均较高，表明公司盈利能力和市场扩张力较好。
+招商蛇口：市盈率适中，市销率合理，营业收入和净利润增长率表现突出，显示公司经营状况良好。
+湖南黄金：市盈率和市销率均处于合理区间，营业收入和净利润增长率显著，反映出公司的成长性。
+格林美：市盈率和市销率均在合理范围内，营业收入和净利润增长率双双超过30%，展现出良好的成长性。
+风险提示：股市有风险，投资需谨慎。以上分析仅供参考，不构成具体投资建议。</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>推荐几只热门股票</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>科创板有什么值得投资的股票？</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
